--- a/biology/Histoire de la zoologie et de la botanique/Ernst_August_Hellmuth_von_Kiesenwetter/Ernst_August_Hellmuth_von_Kiesenwetter.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ernst_August_Hellmuth_von_Kiesenwetter/Ernst_August_Hellmuth_von_Kiesenwetter.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ernst August Hellmuth von Kiesenwetter (5 novembre 1820 à Dresde - 18 mars 1880 à Dresde) est un entomologiste allemand qui s'est spécialisé dans l'étude des coléoptères.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Issu d'une famille de la noblesse saxonne, il poursuit des études de droit à l'université de Leipzig à la suite desquelles il devient fonctionnaire au ministère de l'Intérieur du royaume de Saxe.
 Il fait des expéditions en Grèce et en Espagne pour en étudier et rapporter des insectes. Il est l'auteur de nombreuses publications à propos des insectes, dont les plus remarquables sont Naturgeschichte der Insecten Deutschlands (Histoire naturelle des insectes d'Allemagne), dont il rédige le quatrième tome (1857-1861), ainsi que Beiträge zur Käferfauna Griechenlands (Études sur les coléopères de Grèce) (1858).
